--- a/character_data_S01-S08.xlsx
+++ b/character_data_S01-S08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY_DATAS\MyGit\survival_analysis\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MY_DATAS\MyGit\GoT-Survival_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDAEFB4-5DB2-4C9D-8E3C-0323CDC5F39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9636C994-2416-43E2-9F08-E060422C80BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="character_data_S01-S08" sheetId="1" r:id="rId1"/>
@@ -2909,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,6 +2922,10 @@
     <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
